--- a/static/template/抽奖名单格式.xlsx
+++ b/static/template/抽奖名单格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinagyan/bk_work/lottery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanshu/Desktop/project/bk-lottery/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FE9BDB-4553-E341-AB9B-8C082C1C35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5208CDA2-BE1B-FF48-96FE-5CE268A03E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>中文名</t>
   </si>
@@ -120,10 +120,6 @@
     <t>staff13</t>
   </si>
   <si>
-    <t>IEG互动娱乐事业群/xx组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否请假（1 因公请假  2 因私请假  3外部人员-发送短信会排出）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,6 +141,13 @@
   </si>
   <si>
     <t>不能参与抽奖，也可以直接从staff表中删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A部门</t>
+  </si>
+  <si>
+    <t>A部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -471,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,7 +627,7 @@
   <dimension ref="A1:I583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -646,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -661,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -677,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="6"/>
@@ -691,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
@@ -705,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
@@ -719,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
@@ -733,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -751,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -765,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -779,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -793,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -807,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -821,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -835,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
@@ -843,19 +846,19 @@
     </row>
     <row r="15" spans="1:6" ht="17">
       <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1"/>
     </row>
